--- a/biology/Botanique/Xyris_brevifolia/Xyris_brevifolia.xlsx
+++ b/biology/Botanique/Xyris_brevifolia/Xyris_brevifolia.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Xyris brevifolia, l’Herbe aux yeux jaunes à feuilles courtes, est une espèce américaine de plantes herbacées vivaces de la famille des Xyridaceae. Elle est originaire du Brésil, des Antilles et du Sud-Est des États-Unis (Floride, Alabama, Géorgie, Caroline du Nord et Caroline du Sud)[1],[2],[3].
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Xyris brevifolia, l’Herbe aux yeux jaunes à feuilles courtes, est une espèce américaine de plantes herbacées vivaces de la famille des Xyridaceae. Elle est originaire du Brésil, des Antilles et du Sud-Est des États-Unis (Floride, Alabama, Géorgie, Caroline du Nord et Caroline du Sud).
 </t>
         </is>
       </c>
@@ -511,9 +523,11 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Xyris brevifolia est une plante herbacée vivace atteignant 60 cm de hauteur avec des feuilles étroites atteignant 15 cm de long et des fleurs jaunes[2].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Xyris brevifolia est une plante herbacée vivace atteignant 60 cm de hauteur avec des feuilles étroites atteignant 15 cm de long et des fleurs jaunes.
 </t>
         </is>
       </c>
@@ -542,10 +556,12 @@
           <t>Systématique</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>Le nom correct complet (avec auteur) de ce taxon est Xyris brevifolia Michx.[4].
-Xyris brevifolia a pour synonyme[4] :
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>Le nom correct complet (avec auteur) de ce taxon est Xyris brevifolia Michx..
+Xyris brevifolia a pour synonyme :
 Xyris intermedia Malme</t>
         </is>
       </c>
